--- a/tests/validation/test_synthesis/test_synthesis_all.xlsx
+++ b/tests/validation/test_synthesis/test_synthesis_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>Absolute_error</t>
   </si>
@@ -139,6 +139,81 @@
     <t>Square</t>
   </si>
   <si>
+    <t>2 points FV diffusion scheme</t>
+  </si>
+  <si>
+    <t>FV simulation of the 3D Poisson equation</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexahedra </t>
+  </si>
+  <si>
+    <t>Regular cubes</t>
+  </si>
+  <si>
+    <t>VF5</t>
+  </si>
+  <si>
+    <t>Finite volumes</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Periodic</t>
+  </si>
+  <si>
+    <t>Classical characteristic based scheme</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 104420 cells</t>
+  </si>
+  <si>
+    <t>Constant pressure, divergence free velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangles </t>
+  </si>
+  <si>
+    <t>Unstructured triangles</t>
+  </si>
+  <si>
+    <t>Upwind</t>
+  </si>
+  <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t>Wave system</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 224 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 40 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 6422 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 25872 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 934 cells</t>
+  </si>
+  <si>
     <t>Triangular mesh, compact surface (no boundary)</t>
   </si>
   <si>
@@ -148,15 +223,9 @@
     <t>No</t>
   </si>
   <si>
-    <t>CG</t>
-  </si>
-  <si>
     <t>ILU</t>
   </si>
   <si>
-    <t xml:space="preserve">Triangles </t>
-  </si>
-  <si>
     <t>Unstructured 3D triangles</t>
   </si>
   <si>
@@ -166,45 +235,15 @@
     <t>Finite elements</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Poisson</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Periodic</t>
-  </si>
-  <si>
-    <t>Classical characteristic based scheme</t>
-  </si>
-  <si>
     <t>Resolution of the Wave system in dimension 2 on 6561 cells</t>
   </si>
   <si>
-    <t>Constant pressure, divergence free velocity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quadrangles </t>
   </si>
   <si>
     <t>Regular squares</t>
   </si>
   <si>
-    <t>Upwind</t>
-  </si>
-  <si>
-    <t>Finite volumes</t>
-  </si>
-  <si>
-    <t>Implicit</t>
-  </si>
-  <si>
-    <t>Wave system</t>
-  </si>
-  <si>
     <t>Resolution of the Wave system in dimension 2 on 225 cells</t>
   </si>
   <si>
@@ -217,22 +256,34 @@
     <t>Resolution of the Wave system in dimension 2 on 2601 cells</t>
   </si>
   <si>
-    <t>2 points FV diffusion scheme</t>
+    <t xml:space="preserve">Tetrahedra </t>
+  </si>
+  <si>
+    <t>Unstructured tetrahedra</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 750 cells</t>
+  </si>
+  <si>
+    <t>Regular tetrahedra</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 7986 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 55566 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 105456 cells</t>
   </si>
   <si>
     <t>FV simulation of the 2D Poisson equation</t>
   </si>
   <si>
-    <t>LU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quadrangles Polygons </t>
   </si>
   <si>
-    <t>Non conforming cartesian</t>
-  </si>
-  <si>
-    <t>VF9</t>
+    <t>Non conforming cartesian locally refined</t>
   </si>
   <si>
     <t>Maillage triangulaire</t>
@@ -241,9 +292,6 @@
     <t>FE simulation of the 2D Poisson equation</t>
   </si>
   <si>
-    <t>Unstructured triangles</t>
-  </si>
-  <si>
     <t>New scheme for low Mach flows</t>
   </si>
   <si>
@@ -253,6 +301,21 @@
     <t>Pseudo staggered</t>
   </si>
   <si>
+    <t>Resolution of the Wave system in dimension 3 on 1331 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 29791 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 9261 cells</t>
+  </si>
+  <si>
+    <t>Non conforming cartesian checkerboard</t>
+  </si>
+  <si>
+    <t>Orange, dark squares. PB with mesh ?</t>
+  </si>
+  <si>
     <t>Cube</t>
   </si>
   <si>
@@ -262,10 +325,10 @@
     <t>FE simulation of the 3D Poisson equation</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetrahedra </t>
-  </si>
-  <si>
-    <t>Unstructured tetrahedra</t>
+    <t xml:space="preserve">Hexahedra Polyhedrons </t>
+  </si>
+  <si>
+    <t>Orange, BC violated. PB with mesh ?</t>
   </si>
 </sst>
 </file>
@@ -614,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05147014189015975</v>
+        <v>0.001867093411123344</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>1.055111169815063</v>
+        <v>0.9909679889678955</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -770,38 +833,38 @@
         <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01</v>
+        <v>1e-06</v>
       </c>
       <c r="L2" t="s">
         <v>45</v>
       </c>
       <c r="M2" t="s"/>
       <c r="N2" t="n">
-        <v>6.701381066912833</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005224917105177162</v>
+        <v>5.977370895614186e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="s">
         <v>46</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>288</v>
+        <v>9261</v>
       </c>
       <c r="V2" t="s">
         <v>47</v>
@@ -813,7 +876,7 @@
         <v>49</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="s"/>
       <c r="AA2" t="s"/>
@@ -822,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
@@ -831,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.05182755308062282</v>
+        <v>0.001867093411123344</v>
       </c>
       <c r="AH2" t="s"/>
       <c r="AI2" t="s"/>
@@ -842,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="AN2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -850,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0152535051249299</v>
+        <v>0.0004894161427677624</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>3.333955049514771</v>
+        <v>20.51181387901306</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -874,38 +937,38 @@
         <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01</v>
+        <v>1e-06</v>
       </c>
       <c r="L3" t="s">
         <v>45</v>
       </c>
       <c r="M3" t="s"/>
       <c r="N3" t="n">
-        <v>90.71810302403368</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009271323109331283</v>
+        <v>6.235688443290035e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="s">
         <v>46</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" t="b">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U3" t="n">
-        <v>10773</v>
+        <v>68921</v>
       </c>
       <c r="V3" t="s">
         <v>47</v>
@@ -917,7 +980,7 @@
         <v>49</v>
       </c>
       <c r="Y3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z3" t="s"/>
       <c r="AA3" t="s"/>
@@ -926,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="AD3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
@@ -935,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01525449319150647</v>
+        <v>0.0004894161427677624</v>
       </c>
       <c r="AH3" t="s"/>
       <c r="AI3" t="s"/>
@@ -946,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="AN3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -954,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02138974922176173</v>
+        <v>0.006825059745588558</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>1.115672826766968</v>
+        <v>0.5078649520874023</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -978,38 +1041,38 @@
         <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01</v>
+        <v>1e-06</v>
       </c>
       <c r="L4" t="s">
         <v>45</v>
       </c>
       <c r="M4" t="s"/>
       <c r="N4" t="n">
-        <v>23.86976084501774</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005234910577689178</v>
+        <v>1.295890022155833e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="s">
         <v>46</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
-        <v>1124</v>
+        <v>1331</v>
       </c>
       <c r="V4" t="s">
         <v>47</v>
@@ -1021,7 +1084,7 @@
         <v>49</v>
       </c>
       <c r="Y4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
@@ -1030,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="AD4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
@@ -1039,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02139462713120359</v>
+        <v>0.006825059745588558</v>
       </c>
       <c r="AH4" t="s"/>
       <c r="AI4" t="s"/>
@@ -1050,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="AN4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1058,50 +1121,36 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02257433997753933</v>
+        <v>4757.454647541046</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>1.473344087600708</v>
+        <v>20.40476107597351</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
       <c r="M5" t="s"/>
-      <c r="N5" t="n">
-        <v>53.75664488207017</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.009891925659089404</v>
-      </c>
-      <c r="P5" t="n">
-        <v>16</v>
-      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R5" t="n">
         <v>2</v>
@@ -1110,51 +1159,63 @@
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U5" t="n">
-        <v>2638</v>
+        <v>104420</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="X5" t="s">
         <v>49</v>
       </c>
       <c r="Y5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z5" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="AA5" t="s"/>
       <c r="AB5" t="s"/>
       <c r="AC5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AE5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="b">
         <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.02257569506266233</v>
-      </c>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
-      <c r="AK5" t="s"/>
-      <c r="AL5" t="s"/>
+        <v>0.006986852559153789</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.800396220180545e-06</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>10000</v>
+      </c>
       <c r="AM5" t="n">
         <v>3</v>
       </c>
       <c r="AN5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1162,50 +1223,36 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02059014502529899</v>
+        <v>5792.080601215363</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>1.942729949951172</v>
+        <v>0.5841128826141357</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
       <c r="M6" t="s"/>
-      <c r="N6" t="n">
-        <v>94.69817090279382</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.009457412704703653</v>
-      </c>
-      <c r="P6" t="n">
-        <v>21</v>
-      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R6" t="n">
         <v>2</v>
@@ -1214,51 +1261,63 @@
         <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U6" t="n">
-        <v>4512</v>
+        <v>224</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="W6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="X6" t="s">
         <v>49</v>
       </c>
       <c r="Y6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="AA6" t="s"/>
       <c r="AB6" t="s"/>
       <c r="AC6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AE6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="b">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.02059996200742225</v>
-      </c>
-      <c r="AH6" t="s"/>
-      <c r="AI6" t="s"/>
-      <c r="AJ6" t="s"/>
-      <c r="AK6" t="s"/>
-      <c r="AL6" t="s"/>
+        <v>0.1197510741319826</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>168</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0004108528956661452</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>10000</v>
+      </c>
       <c r="AM6" t="n">
         <v>3</v>
       </c>
       <c r="AN6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1266,25 +1325,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5871.194239616394</v>
+        <v>2570.582697868347</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>5.367403030395508</v>
+        <v>0.8091800212860107</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
         <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
       </c>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
@@ -1295,7 +1354,7 @@
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R7" t="n">
         <v>2</v>
@@ -1307,22 +1366,22 @@
         <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>6561</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" t="s">
         <v>58</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" t="s">
         <v>59</v>
       </c>
-      <c r="X7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>61</v>
-      </c>
       <c r="Z7" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AA7" t="s"/>
       <c r="AB7" t="s"/>
@@ -1330,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE7" t="b">
         <v>1</v>
@@ -1339,13 +1398,13 @@
         <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.5047289418170439</v>
+        <v>0.09023160176105482</v>
       </c>
       <c r="AH7" t="n">
-        <v>1865</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.001918724279835418</v>
+        <v>0.0003494529267496975</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1357,10 +1416,10 @@
         <v>10000</v>
       </c>
       <c r="AM7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1368,25 +1427,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>118.4212317466736</v>
+        <v>14648.13043022156</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5387651920318604</v>
+        <v>2.033308982849121</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
@@ -1397,7 +1456,7 @@
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
@@ -1409,22 +1468,22 @@
         <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>225</v>
+        <v>6422</v>
       </c>
       <c r="V8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" t="s">
         <v>58</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" t="s">
         <v>59</v>
       </c>
-      <c r="X8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>61</v>
-      </c>
       <c r="Z8" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AA8" t="s"/>
       <c r="AB8" t="s"/>
@@ -1432,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE8" t="b">
         <v>1</v>
@@ -1441,13 +1500,13 @@
         <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5280660730259921</v>
+        <v>0.0347657601430682</v>
       </c>
       <c r="AH8" t="n">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.001883333333333326</v>
+        <v>6.704993623821654e-05</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1459,10 +1518,10 @@
         <v>10000</v>
       </c>
       <c r="AM8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1470,25 +1529,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.87940645217896</v>
+        <v>10245.69041204453</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8329439163208008</v>
+        <v>5.570093870162964</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
@@ -1499,7 +1558,7 @@
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R9" t="n">
         <v>2</v>
@@ -1511,22 +1570,22 @@
         <v>10</v>
       </c>
       <c r="U9" t="n">
+        <v>25872</v>
+      </c>
+      <c r="V9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" t="s">
+        <v>58</v>
+      </c>
+      <c r="X9" t="s">
         <v>49</v>
       </c>
-      <c r="V9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>59</v>
       </c>
-      <c r="X9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>61</v>
-      </c>
       <c r="Z9" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AA9" t="s"/>
       <c r="AB9" t="s"/>
@@ -1534,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="b">
         <v>1</v>
@@ -1543,13 +1602,13 @@
         <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.4081166810714978</v>
+        <v>0.01674491913935978</v>
       </c>
       <c r="AH9" t="n">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.001273809523809521</v>
+        <v>1.084351528351974e-05</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1561,10 +1620,10 @@
         <v>10000</v>
       </c>
       <c r="AM9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1572,25 +1631,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632.2355318069458</v>
+        <v>8288.697644710541</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9014530181884766</v>
+        <v>0.8025891780853271</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
@@ -1601,7 +1660,7 @@
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R10" t="n">
         <v>2</v>
@@ -1613,22 +1672,22 @@
         <v>10</v>
       </c>
       <c r="U10" t="n">
-        <v>961</v>
+        <v>934</v>
       </c>
       <c r="V10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" t="s">
         <v>58</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y10" t="s">
         <v>59</v>
       </c>
-      <c r="X10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>61</v>
-      </c>
       <c r="Z10" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AA10" t="s"/>
       <c r="AB10" t="s"/>
@@ -1636,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="AD10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE10" t="b">
         <v>1</v>
@@ -1645,13 +1704,13 @@
         <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.5771361311221931</v>
+        <v>0.08849961452810627</v>
       </c>
       <c r="AH10" t="n">
-        <v>905</v>
+        <v>199</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.002432795698924719</v>
+        <v>0.0002164182479268247</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1663,10 +1722,10 @@
         <v>10000</v>
       </c>
       <c r="AM10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1674,36 +1733,50 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2160.234775543213</v>
+        <v>0.05147014189015975</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>2.078126907348633</v>
+        <v>1.001956939697266</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s"/>
+      <c r="N11" t="n">
+        <v>6.701381066912833</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.005224917105177162</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q11" t="s">
         <v>56</v>
-      </c>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s">
-        <v>57</v>
       </c>
       <c r="R11" t="n">
         <v>2</v>
@@ -1712,63 +1785,51 @@
         <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U11" t="n">
-        <v>2601</v>
+        <v>288</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Z11" t="s"/>
       <c r="AA11" t="s"/>
       <c r="AB11" t="s"/>
       <c r="AC11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AD11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE11" t="b">
-        <v>1</v>
-      </c>
       <c r="AF11" t="b">
         <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5750836508107895</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1513</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0.002472222222222157</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>10000</v>
-      </c>
+        <v>0.05182755308062282</v>
+      </c>
+      <c r="AH11" t="s"/>
+      <c r="AI11" t="s"/>
+      <c r="AJ11" t="s"/>
+      <c r="AK11" t="s"/>
+      <c r="AL11" t="s"/>
       <c r="AM11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1776,50 +1837,50 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7189660258396323</v>
+        <v>0.0152535051249299</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1275930404663086</v>
+        <v>3.225642204284668</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>1e-06</v>
+        <v>0.01</v>
       </c>
       <c r="L12" t="s">
         <v>69</v>
       </c>
       <c r="M12" t="s"/>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>90.71810302403368</v>
       </c>
       <c r="O12" t="n">
-        <v>2.30706086196448e-14</v>
+        <v>0.009271323109331283</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="R12" t="n">
         <v>2</v>
@@ -1828,22 +1889,22 @@
         <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>2560</v>
+        <v>10773</v>
       </c>
       <c r="V12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" t="s">
         <v>71</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>72</v>
       </c>
-      <c r="X12" t="s">
-        <v>60</v>
-      </c>
       <c r="Y12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z12" t="s"/>
       <c r="AA12" t="s"/>
@@ -1852,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="AD12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
@@ -1861,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.7193992998209336</v>
+        <v>0.01525449319150647</v>
       </c>
       <c r="AH12" t="s"/>
       <c r="AI12" t="s"/>
@@ -1869,10 +1930,10 @@
       <c r="AK12" t="s"/>
       <c r="AL12" t="s"/>
       <c r="AM12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -1880,50 +1941,50 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1000017277270367</v>
+        <v>0.02138974922176173</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009227991104125977</v>
+        <v>1.091820955276489</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>50</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>1e-06</v>
+        <v>0.01</v>
       </c>
       <c r="L13" t="s">
         <v>69</v>
       </c>
       <c r="M13" t="s"/>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>23.86976084501774</v>
       </c>
       <c r="O13" t="n">
-        <v>6.545808283048655e-16</v>
+        <v>0.005234910577689178</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="R13" t="n">
         <v>2</v>
@@ -1932,22 +1993,22 @@
         <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>40</v>
+        <v>1124</v>
       </c>
       <c r="V13" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13" t="s">
         <v>71</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>72</v>
       </c>
-      <c r="X13" t="s">
-        <v>60</v>
-      </c>
       <c r="Y13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z13" t="s"/>
       <c r="AA13" t="s"/>
@@ -1956,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="AD13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
@@ -1965,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.1039584090761671</v>
+        <v>0.02139462713120359</v>
       </c>
       <c r="AH13" t="s"/>
       <c r="AI13" t="s"/>
@@ -1973,10 +2034,10 @@
       <c r="AK13" t="s"/>
       <c r="AL13" t="s"/>
       <c r="AM13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -1984,50 +2045,50 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5586640332447963</v>
+        <v>0.02257433997753933</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03705906867980957</v>
+        <v>1.437795877456665</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
         <v>67</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>1e-06</v>
+        <v>0.01</v>
       </c>
       <c r="L14" t="s">
         <v>69</v>
       </c>
       <c r="M14" t="s"/>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>53.75664488207017</v>
       </c>
       <c r="O14" t="n">
-        <v>9.59207956500581e-15</v>
+        <v>0.009891925659089404</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="R14" t="n">
         <v>2</v>
@@ -2036,22 +2097,22 @@
         <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
-        <v>640</v>
+        <v>2638</v>
       </c>
       <c r="V14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" t="s">
         <v>71</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>72</v>
       </c>
-      <c r="X14" t="s">
-        <v>60</v>
-      </c>
       <c r="Y14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z14" t="s"/>
       <c r="AA14" t="s"/>
@@ -2060,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AD14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
@@ -2069,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.560012339485579</v>
+        <v>0.02257569506266233</v>
       </c>
       <c r="AH14" t="s"/>
       <c r="AI14" t="s"/>
@@ -2077,10 +2138,10 @@
       <c r="AK14" t="s"/>
       <c r="AL14" t="s"/>
       <c r="AM14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -2088,50 +2149,50 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3471893575771299</v>
+        <v>0.02059014502529899</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01397395133972168</v>
+        <v>1.863137006759644</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
         <v>67</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>68</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>1e-06</v>
+        <v>0.01</v>
       </c>
       <c r="L15" t="s">
         <v>69</v>
       </c>
       <c r="M15" t="s"/>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>94.69817090279382</v>
       </c>
       <c r="O15" t="n">
-        <v>2.83118061600919e-15</v>
+        <v>0.009457412704703653</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q15" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="R15" t="n">
         <v>2</v>
@@ -2140,22 +2201,22 @@
         <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U15" t="n">
-        <v>160</v>
+        <v>4512</v>
       </c>
       <c r="V15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W15" t="s">
         <v>71</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>72</v>
       </c>
-      <c r="X15" t="s">
-        <v>60</v>
-      </c>
       <c r="Y15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z15" t="s"/>
       <c r="AA15" t="s"/>
@@ -2164,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="AD15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
@@ -2173,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.3505572875687487</v>
+        <v>0.02059996200742225</v>
       </c>
       <c r="AH15" t="s"/>
       <c r="AI15" t="s"/>
@@ -2181,10 +2242,10 @@
       <c r="AK15" t="s"/>
       <c r="AL15" t="s"/>
       <c r="AM15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -2192,50 +2253,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8329061256396579</v>
+        <v>5871.194239616394</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4913091659545898</v>
+        <v>5.289225101470947</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" t="n">
-        <v>500</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1e-06</v>
-      </c>
-      <c r="L16" t="s">
-        <v>69</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
       <c r="M16" t="s"/>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>8.011944619881761e-14</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
@@ -2244,51 +2291,63 @@
         <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U16" t="n">
-        <v>10240</v>
+        <v>6561</v>
       </c>
       <c r="V16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="X16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z16" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AA16" t="s"/>
       <c r="AB16" t="s"/>
       <c r="AC16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AE16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="b">
         <v>1</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.8330315724071983</v>
-      </c>
-      <c r="AH16" t="s"/>
-      <c r="AI16" t="s"/>
-      <c r="AJ16" t="s"/>
-      <c r="AK16" t="s"/>
-      <c r="AL16" t="s"/>
+        <v>0.5047289418170439</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1865</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.001918724279835418</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>10000</v>
+      </c>
       <c r="AM16" t="n">
         <v>2</v>
       </c>
       <c r="AN16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -2296,50 +2355,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9465021282677694</v>
+        <v>118.4212317466736</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D17" t="n">
-        <v>8.754692077636719</v>
+        <v>0.5354149341583252</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" t="n">
-        <v>500</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1e-06</v>
-      </c>
-      <c r="L17" t="s">
-        <v>69</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
       <c r="M17" t="s"/>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2.392159736442359e-12</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="R17" t="n">
         <v>2</v>
@@ -2348,51 +2393,63 @@
         <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U17" t="n">
-        <v>163840</v>
+        <v>225</v>
       </c>
       <c r="V17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="X17" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z17" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AA17" t="s"/>
       <c r="AB17" t="s"/>
       <c r="AC17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AE17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="b">
         <v>1</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.9465110371691642</v>
-      </c>
-      <c r="AH17" t="s"/>
-      <c r="AI17" t="s"/>
-      <c r="AJ17" t="s"/>
-      <c r="AK17" t="s"/>
-      <c r="AL17" t="s"/>
+        <v>0.5280660730259921</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>339</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.001883333333333326</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>10000</v>
+      </c>
       <c r="AM17" t="n">
         <v>2</v>
       </c>
       <c r="AN17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -2400,50 +2457,36 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9044283577289546</v>
+        <v>16.87940645217896</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D18" t="n">
-        <v>1.999534845352173</v>
+        <v>0.7766919136047363</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" t="n">
-        <v>500</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1e-06</v>
-      </c>
-      <c r="L18" t="s">
-        <v>69</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
       <c r="M18" t="s"/>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>4.381184123329629e-13</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="R18" t="n">
         <v>2</v>
@@ -2452,51 +2495,63 @@
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U18" t="n">
-        <v>40960</v>
+        <v>49</v>
       </c>
       <c r="V18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="X18" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z18" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AA18" t="s"/>
       <c r="AB18" t="s"/>
       <c r="AC18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AE18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="b">
         <v>1</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.9044624099069691</v>
-      </c>
-      <c r="AH18" t="s"/>
-      <c r="AI18" t="s"/>
-      <c r="AJ18" t="s"/>
-      <c r="AK18" t="s"/>
-      <c r="AL18" t="s"/>
+        <v>0.4081166810714978</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>107</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.001273809523809521</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>10000</v>
+      </c>
       <c r="AM18" t="n">
         <v>2</v>
       </c>
       <c r="AN18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -2504,50 +2559,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01570247464467989</v>
+        <v>632.2355318069458</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02482891082763672</v>
+        <v>0.9019401073455811</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s"/>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s">
         <v>74</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1e-06</v>
-      </c>
-      <c r="L19" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" t="s"/>
-      <c r="N19" t="n">
-        <v>7.601209925152951</v>
-      </c>
-      <c r="O19" t="n">
-        <v>8.235212147898558e-07</v>
-      </c>
-      <c r="P19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>46</v>
       </c>
       <c r="R19" t="n">
         <v>2</v>
@@ -2556,51 +2597,63 @@
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U19" t="n">
-        <v>131</v>
+        <v>961</v>
       </c>
       <c r="V19" t="s">
         <v>75</v>
       </c>
       <c r="W19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="X19" t="s">
         <v>49</v>
       </c>
       <c r="Y19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z19" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AA19" t="s"/>
       <c r="AB19" t="s"/>
       <c r="AC19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.5771361311221931</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>905</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.002432795698924719</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN19" t="s">
         <v>51</v>
-      </c>
-      <c r="AE19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0.01570459247460839</v>
-      </c>
-      <c r="AH19" t="s"/>
-      <c r="AI19" t="s"/>
-      <c r="AJ19" t="s"/>
-      <c r="AK19" t="s"/>
-      <c r="AL19" t="s"/>
-      <c r="AM19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -2608,50 +2661,36 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1738172563545245</v>
+        <v>2160.234775543213</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01454806327819824</v>
+        <v>2.069469928741455</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s"/>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s">
         <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1e-06</v>
-      </c>
-      <c r="L20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" t="s"/>
-      <c r="N20" t="n">
-        <v>1.683362289475606</v>
-      </c>
-      <c r="O20" t="n">
-        <v>7.343093155448229e-07</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>46</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
@@ -2660,51 +2699,63 @@
         <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U20" t="n">
-        <v>29</v>
+        <v>2601</v>
       </c>
       <c r="V20" t="s">
         <v>75</v>
       </c>
       <c r="W20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="X20" t="s">
         <v>49</v>
       </c>
       <c r="Y20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z20" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AA20" t="s"/>
       <c r="AB20" t="s"/>
       <c r="AC20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.5750836508107895</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1513</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.002472222222222157</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN20" t="s">
         <v>51</v>
-      </c>
-      <c r="AE20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0.1738193148102853</v>
-      </c>
-      <c r="AH20" t="s"/>
-      <c r="AI20" t="s"/>
-      <c r="AJ20" t="s"/>
-      <c r="AK20" t="s"/>
-      <c r="AL20" t="s"/>
-      <c r="AM20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -2712,31 +2763,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.005088730347348025</v>
+        <v>0.07244065708800554</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09577798843383789</v>
+        <v>1.42023491859436</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
         <v>44</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
         <v>1e-06</v>
@@ -2746,31 +2797,31 @@
       </c>
       <c r="M21" t="s"/>
       <c r="N21" t="n">
-        <v>31.6142719719577</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>7.046256332738514e-07</v>
+        <v>1.043510701256385e-13</v>
       </c>
       <c r="P21" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" t="b">
         <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U21" t="n">
-        <v>506</v>
+        <v>16834</v>
       </c>
       <c r="V21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s">
         <v>48</v>
@@ -2779,7 +2830,7 @@
         <v>49</v>
       </c>
       <c r="Y21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z21" t="s"/>
       <c r="AA21" t="s"/>
@@ -2788,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="AD21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
@@ -2797,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.005088979181987204</v>
+        <v>0.07589566871761641</v>
       </c>
       <c r="AH21" t="s"/>
       <c r="AI21" t="s"/>
@@ -2808,7 +2859,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -2816,31 +2867,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0002096773829974863</v>
+        <v>0.04900879488624815</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
       </c>
       <c r="D22" t="n">
-        <v>27.11101913452148</v>
+        <v>3.243000984191895</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
         <v>44</v>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
         <v>1e-06</v>
@@ -2850,31 +2901,31 @@
       </c>
       <c r="M22" t="s"/>
       <c r="N22" t="n">
-        <v>844.338359289084</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>9.494065672434837e-07</v>
+        <v>3.971567179195965e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S22" t="b">
         <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U22" t="n">
-        <v>13135</v>
+        <v>28561</v>
       </c>
       <c r="V22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s">
         <v>48</v>
@@ -2883,7 +2934,7 @@
         <v>49</v>
       </c>
       <c r="Y22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z22" t="s"/>
       <c r="AA22" t="s"/>
@@ -2892,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="AD22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
@@ -2901,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0002096774006709513</v>
+        <v>0.05013791906501985</v>
       </c>
       <c r="AH22" t="s"/>
       <c r="AI22" t="s"/>
@@ -2912,7 +2963,7 @@
         <v>3</v>
       </c>
       <c r="AN22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -2920,31 +2971,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0008048696794373811</v>
+        <v>0.05125809869742901</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>1.998002052307129</v>
+        <v>13.72071599960327</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
         <v>44</v>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
         <v>1e-06</v>
@@ -2954,31 +3005,31 @@
       </c>
       <c r="M23" t="s"/>
       <c r="N23" t="n">
-        <v>209.7488427943205</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>8.76300969225488e-07</v>
+        <v>1.289405382687509e-12</v>
       </c>
       <c r="P23" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23" t="b">
         <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U23" t="n">
-        <v>3310</v>
+        <v>63249</v>
       </c>
       <c r="V23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s">
         <v>48</v>
@@ -2987,7 +3038,7 @@
         <v>49</v>
       </c>
       <c r="Y23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z23" t="s"/>
       <c r="AA23" t="s"/>
@@ -2996,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="AD23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
@@ -3005,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0008048788405363034</v>
+        <v>0.0540304848207901</v>
       </c>
       <c r="AH23" t="s"/>
       <c r="AI23" t="s"/>
@@ -3016,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="AN23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3024,25 +3075,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.607231414903822e-05</v>
+        <v>0.09016932350255003</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24" t="n">
-        <v>1.090171098709106</v>
+        <v>0.5917210578918457</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
         <v>44</v>
@@ -3054,23 +3105,23 @@
         <v>1e-06</v>
       </c>
       <c r="L24" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M24" t="s"/>
       <c r="N24" t="n">
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>4.429492185422753e-13</v>
+        <v>5.096491803873672e-14</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S24" t="b">
         <v>1</v>
@@ -3079,19 +3130,19 @@
         <v>5</v>
       </c>
       <c r="U24" t="n">
-        <v>22801</v>
+        <v>7629</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X24" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s"/>
       <c r="AA24" t="s"/>
@@ -3100,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="AD24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
@@ -3109,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="AG24" t="n">
-        <v>3.607231414903822e-05</v>
+        <v>0.09811268005866215</v>
       </c>
       <c r="AH24" t="s"/>
       <c r="AI24" t="s"/>
@@ -3117,10 +3168,10 @@
       <c r="AK24" t="s"/>
       <c r="AL24" t="s"/>
       <c r="AM24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -3128,25 +3179,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003162718574518664</v>
+        <v>0.2060528742463322</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>0.127269983291626</v>
+        <v>0.4462339878082275</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
         <v>44</v>
@@ -3158,23 +3209,23 @@
         <v>1e-06</v>
       </c>
       <c r="L25" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M25" t="s"/>
       <c r="N25" t="n">
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>5.905389504532181e-14</v>
+        <v>5.832278459953636e-15</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>
@@ -3183,19 +3234,19 @@
         <v>5</v>
       </c>
       <c r="U25" t="n">
-        <v>2601</v>
+        <v>270</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X25" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z25" t="s"/>
       <c r="AA25" t="s"/>
@@ -3204,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="AD25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
@@ -3213,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0003162718574518664</v>
+        <v>0.2469016831623077</v>
       </c>
       <c r="AH25" t="s"/>
       <c r="AI25" t="s"/>
@@ -3221,10 +3272,10 @@
       <c r="AK25" t="s"/>
       <c r="AL25" t="s"/>
       <c r="AM25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -3232,25 +3283,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00682505974558878</v>
+        <v>0.09502979400541336</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0126030445098877</v>
+        <v>0.3616600036621094</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
         <v>44</v>
@@ -3262,23 +3313,23 @@
         <v>1e-06</v>
       </c>
       <c r="L26" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M26" t="s"/>
       <c r="N26" t="n">
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>2.666578799989424e-15</v>
+        <v>4.029722728702867e-14</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S26" t="b">
         <v>1</v>
@@ -3287,19 +3338,19 @@
         <v>5</v>
       </c>
       <c r="U26" t="n">
-        <v>121</v>
+        <v>4077</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X26" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z26" t="s"/>
       <c r="AA26" t="s"/>
@@ -3308,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="AD26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
@@ -3317,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.00682505974558878</v>
+        <v>0.09807479699639321</v>
       </c>
       <c r="AH26" t="s"/>
       <c r="AI26" t="s"/>
@@ -3325,10 +3376,10 @@
       <c r="AK26" t="s"/>
       <c r="AL26" t="s"/>
       <c r="AM26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -3336,25 +3387,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.035783966780613e-05</v>
+        <v>0.07251336396109584</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27" t="n">
-        <v>1.946522951126099</v>
+        <v>0.2353188991546631</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
         <v>44</v>
@@ -3366,23 +3417,23 @@
         <v>1e-06</v>
       </c>
       <c r="L27" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M27" t="s"/>
       <c r="N27" t="n">
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.486825135716844e-12</v>
+        <v>1.647944250215064e-14</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
       </c>
       <c r="Q27" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27" t="b">
         <v>1</v>
@@ -3391,19 +3442,19 @@
         <v>5</v>
       </c>
       <c r="U27" t="n">
-        <v>40401</v>
+        <v>2081</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X27" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z27" t="s"/>
       <c r="AA27" t="s"/>
@@ -3412,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="AD27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
@@ -3421,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.035783966780613e-05</v>
+        <v>0.08723262076393945</v>
       </c>
       <c r="AH27" t="s"/>
       <c r="AI27" t="s"/>
@@ -3429,10 +3480,10 @@
       <c r="AK27" t="s"/>
       <c r="AL27" t="s"/>
       <c r="AM27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -3440,55 +3491,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1081.025087356567</v>
+        <v>5221.732818603516</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" t="n">
-        <v>80.65323686599731</v>
+        <v>1.001787900924683</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
         <v>55</v>
       </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" t="n">
-        <v>50</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="L28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.01568424097989</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2.65755418019997e-06</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s"/>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S28" t="b">
         <v>1</v>
@@ -3497,34 +3532,30 @@
         <v>10</v>
       </c>
       <c r="U28" t="n">
-        <v>6561</v>
+        <v>750</v>
       </c>
       <c r="V28" t="s">
+        <v>83</v>
+      </c>
+      <c r="W28" t="s">
         <v>58</v>
       </c>
-      <c r="W28" t="s">
-        <v>78</v>
-      </c>
       <c r="X28" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.003086419753086406</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1.028806584362135e-06</v>
-      </c>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA28" t="s"/>
+      <c r="AB28" t="s"/>
       <c r="AC28" t="b">
         <v>0</v>
       </c>
       <c r="AD28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE28" t="b">
         <v>1</v>
@@ -3533,16 +3564,16 @@
         <v>1</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.03956451080126301</v>
+        <v>0.2982170476221595</v>
       </c>
       <c r="AH28" t="n">
-        <v>5952</v>
+        <v>126</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.006123456790122678</v>
+        <v>0.0003865993248815561</v>
       </c>
       <c r="AJ28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
         <v>1000</v>
@@ -3551,10 +3582,10 @@
         <v>10000</v>
       </c>
       <c r="AM28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -3562,55 +3593,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>779.7479758262634</v>
+        <v>7259.842314720154</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" t="n">
-        <v>19.91063117980957</v>
+        <v>3.301831960678101</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>50</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="L29" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.01473858495003</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.391168224121152e-06</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s"/>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S29" t="b">
         <v>1</v>
@@ -3619,34 +3634,30 @@
         <v>10</v>
       </c>
       <c r="U29" t="n">
-        <v>2601</v>
+        <v>7986</v>
       </c>
       <c r="V29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W29" t="s">
         <v>58</v>
       </c>
-      <c r="W29" t="s">
-        <v>78</v>
-      </c>
       <c r="X29" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.004901960784313708</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.633986928104569e-06</v>
-      </c>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA29" t="s"/>
+      <c r="AB29" t="s"/>
       <c r="AC29" t="b">
         <v>0</v>
       </c>
       <c r="AD29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE29" t="b">
         <v>1</v>
@@ -3655,16 +3666,16 @@
         <v>1</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.05491052997775769</v>
+        <v>0.161172373592791</v>
       </c>
       <c r="AH29" t="n">
-        <v>3750</v>
+        <v>178</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.006127450980391613</v>
+        <v>0.0002482492057320228</v>
       </c>
       <c r="AJ29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
         <v>1000</v>
@@ -3673,10 +3684,10 @@
         <v>10000</v>
       </c>
       <c r="AM29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -3684,55 +3695,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>128.7340493202209</v>
+        <v>9341.40017080307</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5292649269104004</v>
+        <v>22.87338304519653</v>
       </c>
       <c r="E30" t="s">
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" t="n">
-        <v>50</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="L30" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.014369931491095</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.291821271818711e-06</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s"/>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S30" t="b">
         <v>1</v>
@@ -3741,34 +3736,30 @@
         <v>10</v>
       </c>
       <c r="U30" t="n">
+        <v>55566</v>
+      </c>
+      <c r="V30" t="s">
+        <v>83</v>
+      </c>
+      <c r="W30" t="s">
+        <v>58</v>
+      </c>
+      <c r="X30" t="s">
         <v>49</v>
       </c>
-      <c r="V30" t="s">
-        <v>58</v>
-      </c>
-      <c r="W30" t="s">
-        <v>78</v>
-      </c>
-      <c r="X30" t="s">
-        <v>60</v>
-      </c>
       <c r="Y30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.0357142857142857</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1.19047619047619e-05</v>
-      </c>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA30" t="s"/>
+      <c r="AB30" t="s"/>
       <c r="AC30" t="b">
         <v>0</v>
       </c>
       <c r="AD30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE30" t="b">
         <v>1</v>
@@ -3777,16 +3768,16 @@
         <v>1</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.1401180245808307</v>
+        <v>0.09047688006052726</v>
       </c>
       <c r="AH30" t="n">
-        <v>330</v>
+        <v>158</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.003928571428571438</v>
+        <v>0.0001154245905731025</v>
       </c>
       <c r="AJ30" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
         <v>1000</v>
@@ -3795,10 +3786,10 @@
         <v>10000</v>
       </c>
       <c r="AM30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -3806,55 +3797,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>282.9622840881348</v>
+        <v>8299.079296112061</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" t="n">
-        <v>3.974418163299561</v>
+        <v>46.4449942111969</v>
       </c>
       <c r="E31" t="s">
         <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" t="n">
-        <v>50</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="L31" t="s">
-        <v>45</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.014445864551514</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.190695694837626e-06</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s"/>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31" t="b">
         <v>1</v>
@@ -3863,34 +3838,30 @@
         <v>10</v>
       </c>
       <c r="U31" t="n">
-        <v>961</v>
+        <v>105456</v>
       </c>
       <c r="V31" t="s">
+        <v>83</v>
+      </c>
+      <c r="W31" t="s">
         <v>58</v>
       </c>
-      <c r="W31" t="s">
-        <v>78</v>
-      </c>
       <c r="X31" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.008064516129032251</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>2.68817204301075e-06</v>
-      </c>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA31" t="s"/>
+      <c r="AB31" t="s"/>
       <c r="AC31" t="b">
         <v>0</v>
       </c>
       <c r="AD31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE31" t="b">
         <v>1</v>
@@ -3899,16 +3870,16 @@
         <v>1</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.08670686162432897</v>
+        <v>0.07366943995793743</v>
       </c>
       <c r="AH31" t="n">
-        <v>1845</v>
+        <v>150</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.004959677419354811</v>
+        <v>8.850717144724236e-05</v>
       </c>
       <c r="AJ31" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
         <v>1000</v>
@@ -3917,10 +3888,10 @@
         <v>10000</v>
       </c>
       <c r="AM31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:40">
@@ -3928,52 +3899,50 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>181.0557241439819</v>
+        <v>0.7189660258396323</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9426639080047607</v>
+        <v>0.2529981136322021</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>1e-05</v>
+        <v>1e-06</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
-      <c r="M32" t="n">
-        <v>2</v>
-      </c>
+      <c r="M32" t="s"/>
       <c r="N32" t="n">
-        <v>1.014385574259385</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.197492679724406e-06</v>
+        <v>2.30706086196448e-14</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="R32" t="n">
         <v>2</v>
@@ -3982,67 +3951,51 @@
         <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U32" t="n">
-        <v>225</v>
+        <v>2560</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="W32" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="X32" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y32" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0.01666666666666666</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>5.555555555555554e-06</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Z32" t="s"/>
+      <c r="AA32" t="s"/>
+      <c r="AB32" t="s"/>
       <c r="AC32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AD32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE32" t="b">
-        <v>1</v>
-      </c>
       <c r="AF32" t="b">
         <v>1</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.1140526462916363</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>856</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0.004755555555555531</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>10000</v>
-      </c>
+        <v>0.7193992998209336</v>
+      </c>
+      <c r="AH32" t="s"/>
+      <c r="AI32" t="s"/>
+      <c r="AJ32" t="s"/>
+      <c r="AK32" t="s"/>
+      <c r="AL32" t="s"/>
       <c r="AM32" t="n">
         <v>2</v>
       </c>
       <c r="AN32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:40">
@@ -4050,25 +4003,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02225342572509981</v>
+        <v>0.1000017277270367</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1916689872741699</v>
+        <v>0.4654397964477539</v>
       </c>
       <c r="E33" t="s">
         <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -4080,20 +4033,20 @@
         <v>1e-06</v>
       </c>
       <c r="L33" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M33" t="s"/>
       <c r="N33" t="n">
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.838139293379311e-13</v>
+        <v>6.545808283048655e-16</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
       </c>
       <c r="Q33" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="R33" t="n">
         <v>2</v>
@@ -4102,22 +4055,22 @@
         <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U33" t="n">
-        <v>2560</v>
+        <v>40</v>
       </c>
       <c r="V33" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="W33" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X33" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z33" t="s"/>
       <c r="AA33" t="s"/>
@@ -4126,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="AD33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
@@ -4135,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.02226683641491682</v>
+        <v>0.1039584090761671</v>
       </c>
       <c r="AH33" t="s"/>
       <c r="AI33" t="s"/>
@@ -4146,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="AN33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:40">
@@ -4154,25 +4107,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0708612563683631</v>
+        <v>0.5586640332447963</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01106500625610352</v>
+        <v>0.1530609130859375</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s">
         <v>44</v>
@@ -4184,20 +4137,20 @@
         <v>1e-06</v>
       </c>
       <c r="L34" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M34" t="s"/>
       <c r="N34" t="n">
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>9.502393957370366e-16</v>
+        <v>9.59207956500581e-15</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
       </c>
       <c r="Q34" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="R34" t="n">
         <v>2</v>
@@ -4206,22 +4159,22 @@
         <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U34" t="n">
-        <v>40</v>
+        <v>640</v>
       </c>
       <c r="V34" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="W34" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X34" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y34" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z34" t="s"/>
       <c r="AA34" t="s"/>
@@ -4230,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="AD34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
@@ -4239,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.07366496204246861</v>
+        <v>0.560012339485579</v>
       </c>
       <c r="AH34" t="s"/>
       <c r="AI34" t="s"/>
@@ -4250,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="AN34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:40">
@@ -4258,25 +4211,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02673644973497535</v>
+        <v>0.3471893575771299</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05195498466491699</v>
+        <v>0.1405940055847168</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
         <v>44</v>
@@ -4288,20 +4241,20 @@
         <v>1e-06</v>
       </c>
       <c r="L35" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M35" t="s"/>
       <c r="N35" t="n">
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.924624158598763e-14</v>
+        <v>2.83118061600919e-15</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
       </c>
       <c r="Q35" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="R35" t="n">
         <v>2</v>
@@ -4310,22 +4263,22 @@
         <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U35" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="V35" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="W35" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X35" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z35" t="s"/>
       <c r="AA35" t="s"/>
@@ -4334,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="AD35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
@@ -4343,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.02680097674922516</v>
+        <v>0.3505572875687487</v>
       </c>
       <c r="AH35" t="s"/>
       <c r="AI35" t="s"/>
@@ -4354,7 +4307,7 @@
         <v>2</v>
       </c>
       <c r="AN35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:40">
@@ -4362,25 +4315,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03703589094000981</v>
+        <v>0.8329061256396579</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01937007904052734</v>
+        <v>0.634660005569458</v>
       </c>
       <c r="E36" t="s">
         <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
         <v>44</v>
@@ -4392,20 +4345,20 @@
         <v>1e-06</v>
       </c>
       <c r="L36" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M36" t="s"/>
       <c r="N36" t="n">
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>9.567211795669094e-15</v>
+        <v>8.011944619881761e-14</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
       <c r="Q36" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="R36" t="n">
         <v>2</v>
@@ -4414,22 +4367,22 @@
         <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U36" t="n">
-        <v>160</v>
+        <v>10240</v>
       </c>
       <c r="V36" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="W36" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X36" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z36" t="s"/>
       <c r="AA36" t="s"/>
@@ -4438,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="AD36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
@@ -4447,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.03739515969390723</v>
+        <v>0.8330315724071983</v>
       </c>
       <c r="AH36" t="s"/>
       <c r="AI36" t="s"/>
@@ -4458,7 +4411,7 @@
         <v>2</v>
       </c>
       <c r="AN36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:40">
@@ -4466,25 +4419,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0206188039788423</v>
+        <v>0.9465021282677694</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7093961238861084</v>
+        <v>9.081861972808838</v>
       </c>
       <c r="E37" t="s">
         <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
         <v>44</v>
@@ -4496,20 +4449,20 @@
         <v>1e-06</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M37" t="s"/>
       <c r="N37" t="n">
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.87205750464589e-12</v>
+        <v>2.392159736442359e-12</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
       </c>
       <c r="Q37" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="R37" t="n">
         <v>2</v>
@@ -4518,22 +4471,22 @@
         <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U37" t="n">
-        <v>10240</v>
+        <v>163840</v>
       </c>
       <c r="V37" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="W37" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X37" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y37" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z37" t="s"/>
       <c r="AA37" t="s"/>
@@ -4542,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="AD37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
@@ -4551,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.0206219094456291</v>
+        <v>0.9465110371691642</v>
       </c>
       <c r="AH37" t="s"/>
       <c r="AI37" t="s"/>
@@ -4562,7 +4515,7 @@
         <v>2</v>
       </c>
       <c r="AN37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:40">
@@ -4570,25 +4523,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01998932029872391</v>
+        <v>0.9044283577289546</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" t="n">
-        <v>2.890105962753296</v>
+        <v>2.232927083969116</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
         <v>44</v>
@@ -4600,20 +4553,20 @@
         <v>1e-06</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M38" t="s"/>
       <c r="N38" t="n">
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.27846276579829e-11</v>
+        <v>4.381184123329629e-13</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
       </c>
       <c r="Q38" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="R38" t="n">
         <v>2</v>
@@ -4622,22 +4575,22 @@
         <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
         <v>40960</v>
       </c>
       <c r="V38" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="W38" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="X38" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y38" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z38" t="s"/>
       <c r="AA38" t="s"/>
@@ -4646,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="AD38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
@@ -4655,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.01999007290658653</v>
+        <v>0.9044624099069691</v>
       </c>
       <c r="AH38" t="s"/>
       <c r="AI38" t="s"/>
@@ -4666,7 +4619,7 @@
         <v>2</v>
       </c>
       <c r="AN38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:40">
@@ -4674,31 +4627,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.007902225053731282</v>
+        <v>0.01570247464467989</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
       </c>
       <c r="D39" t="n">
-        <v>1.0414879322052</v>
+        <v>0.2352070808410645</v>
       </c>
       <c r="E39" t="s">
         <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
         <v>44</v>
       </c>
       <c r="J39" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
         <v>1e-06</v>
@@ -4708,16 +4661,16 @@
       </c>
       <c r="M39" t="s"/>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>7.601209925152951</v>
       </c>
       <c r="O39" t="n">
-        <v>5.755690286662439e-13</v>
+        <v>8.235212147898558e-07</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q39" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R39" t="n">
         <v>2</v>
@@ -4726,22 +4679,22 @@
         <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U39" t="n">
-        <v>25872</v>
+        <v>131</v>
       </c>
       <c r="V39" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W39" t="s">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s">
         <v>72</v>
       </c>
-      <c r="X39" t="s">
-        <v>60</v>
-      </c>
       <c r="Y39" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z39" t="s"/>
       <c r="AA39" t="s"/>
@@ -4750,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="AD39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
@@ -4759,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.007903217495356218</v>
+        <v>0.01570459247460839</v>
       </c>
       <c r="AH39" t="s"/>
       <c r="AI39" t="s"/>
@@ -4770,7 +4723,7 @@
         <v>3</v>
       </c>
       <c r="AN39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:40">
@@ -4778,31 +4731,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04115997257442783</v>
+        <v>0.1738172563545245</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.008323907852172852</v>
+        <v>0.5350568294525146</v>
       </c>
       <c r="E40" t="s">
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
       </c>
       <c r="J40" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
         <v>1e-06</v>
@@ -4812,16 +4765,16 @@
       </c>
       <c r="M40" t="s"/>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>1.683362289475606</v>
       </c>
       <c r="O40" t="n">
-        <v>1.472033559735142e-15</v>
+        <v>7.343093155448229e-07</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R40" t="n">
         <v>2</v>
@@ -4830,22 +4783,22 @@
         <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="V40" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W40" t="s">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s">
         <v>72</v>
       </c>
-      <c r="X40" t="s">
-        <v>60</v>
-      </c>
       <c r="Y40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z40" t="s"/>
       <c r="AA40" t="s"/>
@@ -4854,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="AD40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
@@ -4863,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.04972168575894906</v>
+        <v>0.1738193148102853</v>
       </c>
       <c r="AH40" t="s"/>
       <c r="AI40" t="s"/>
@@ -4874,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AN40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:40">
@@ -4882,31 +4835,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02181982306404848</v>
+        <v>0.005088730347348025</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04155206680297852</v>
+        <v>0.3207931518554688</v>
       </c>
       <c r="E41" t="s">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I41" t="s">
         <v>44</v>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
         <v>1e-06</v>
@@ -4916,16 +4869,16 @@
       </c>
       <c r="M41" t="s"/>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>31.6142719719577</v>
       </c>
       <c r="O41" t="n">
-        <v>2.825252567947374e-14</v>
+        <v>7.046256332738514e-07</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Q41" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R41" t="n">
         <v>2</v>
@@ -4934,22 +4887,22 @@
         <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U41" t="n">
-        <v>934</v>
+        <v>506</v>
       </c>
       <c r="V41" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W41" t="s">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s">
         <v>72</v>
       </c>
-      <c r="X41" t="s">
-        <v>60</v>
-      </c>
       <c r="Y41" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z41" t="s"/>
       <c r="AA41" t="s"/>
@@ -4958,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="AD41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE41" t="b">
         <v>0</v>
@@ -4967,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.02190713533101975</v>
+        <v>0.005088979181987204</v>
       </c>
       <c r="AH41" t="s"/>
       <c r="AI41" t="s"/>
@@ -4978,7 +4931,7 @@
         <v>3</v>
       </c>
       <c r="AN41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:40">
@@ -4986,31 +4939,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04317126214846034</v>
+        <v>0.0002096773829974863</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01494097709655762</v>
+        <v>27.29995489120483</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I42" t="s">
         <v>44</v>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
         <v>1e-06</v>
@@ -5020,16 +4973,16 @@
       </c>
       <c r="M42" t="s"/>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>844.338359289084</v>
       </c>
       <c r="O42" t="n">
-        <v>5.844609183824137e-15</v>
+        <v>9.494065672434837e-07</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="Q42" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R42" t="n">
         <v>2</v>
@@ -5038,22 +4991,22 @@
         <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U42" t="n">
-        <v>224</v>
+        <v>13135</v>
       </c>
       <c r="V42" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W42" t="s">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s">
         <v>72</v>
       </c>
-      <c r="X42" t="s">
-        <v>60</v>
-      </c>
       <c r="Y42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z42" t="s"/>
       <c r="AA42" t="s"/>
@@ -5062,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="AD42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
@@ -5071,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.04358040486275449</v>
+        <v>0.0002096774006709513</v>
       </c>
       <c r="AH42" t="s"/>
       <c r="AI42" t="s"/>
@@ -5082,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="AN42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:40">
@@ -5090,31 +5043,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01150528267417145</v>
+        <v>0.0008048696794373811</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2498068809509277</v>
+        <v>2.217300891876221</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
         <v>44</v>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K43" t="n">
         <v>1e-06</v>
@@ -5124,16 +5077,16 @@
       </c>
       <c r="M43" t="s"/>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>209.7488427943205</v>
       </c>
       <c r="O43" t="n">
-        <v>1.612434669993923e-13</v>
+        <v>8.76300969225488e-07</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="Q43" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R43" t="n">
         <v>2</v>
@@ -5142,22 +5095,22 @@
         <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U43" t="n">
-        <v>6422</v>
+        <v>3310</v>
       </c>
       <c r="V43" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W43" t="s">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s">
         <v>72</v>
       </c>
-      <c r="X43" t="s">
-        <v>60</v>
-      </c>
       <c r="Y43" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z43" t="s"/>
       <c r="AA43" t="s"/>
@@ -5166,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="AD43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
@@ -5175,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.01151013347114442</v>
+        <v>0.0008048788405363034</v>
       </c>
       <c r="AH43" t="s"/>
       <c r="AI43" t="s"/>
@@ -5186,7 +5139,7 @@
         <v>3</v>
       </c>
       <c r="AN43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:40">
@@ -5194,31 +5147,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1015435968455699</v>
+        <v>3.607231414903822e-05</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
       </c>
       <c r="D44" t="n">
-        <v>2.643404006958008</v>
+        <v>1.297981977462769</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
         <v>44</v>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
         <v>1e-06</v>
@@ -5228,31 +5181,31 @@
       </c>
       <c r="M44" t="s"/>
       <c r="N44" t="n">
-        <v>4.528729165874529</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>8.118216070445409e-07</v>
+        <v>4.429492185422753e-13</v>
       </c>
       <c r="P44" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S44" t="b">
         <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="U44" t="n">
-        <v>1543</v>
+        <v>22801</v>
       </c>
       <c r="V44" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W44" t="s">
         <v>48</v>
@@ -5261,7 +5214,7 @@
         <v>49</v>
       </c>
       <c r="Y44" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z44" t="s"/>
       <c r="AA44" t="s"/>
@@ -5270,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="AD44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE44" t="b">
         <v>0</v>
@@ -5279,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.101543596845585</v>
+        <v>3.607231414903822e-05</v>
       </c>
       <c r="AH44" t="s"/>
       <c r="AI44" t="s"/>
@@ -5287,10 +5240,10 @@
       <c r="AK44" t="s"/>
       <c r="AL44" t="s"/>
       <c r="AM44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:40">
@@ -5298,31 +5251,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1598242313645823</v>
+        <v>0.0003162718574518664</v>
       </c>
       <c r="C45" t="s">
         <v>39</v>
       </c>
       <c r="D45" t="n">
-        <v>0.04384016990661621</v>
+        <v>0.2526500225067139</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
         <v>44</v>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K45" t="n">
         <v>1e-06</v>
@@ -5332,31 +5285,31 @@
       </c>
       <c r="M45" t="s"/>
       <c r="N45" t="n">
-        <v>1.156365989418418</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>3.866477153378435e-08</v>
+        <v>5.905389504532181e-14</v>
       </c>
       <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>74</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
         <v>5</v>
       </c>
-      <c r="Q45" t="s">
-        <v>82</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="b">
-        <v>1</v>
-      </c>
-      <c r="T45" t="n">
-        <v>15</v>
-      </c>
       <c r="U45" t="n">
-        <v>74</v>
+        <v>2601</v>
       </c>
       <c r="V45" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W45" t="s">
         <v>48</v>
@@ -5365,7 +5318,7 @@
         <v>49</v>
       </c>
       <c r="Y45" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z45" t="s"/>
       <c r="AA45" t="s"/>
@@ -5374,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="AD45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
@@ -5383,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.1598242313645823</v>
+        <v>0.0003162718574518664</v>
       </c>
       <c r="AH45" t="s"/>
       <c r="AI45" t="s"/>
@@ -5391,10 +5344,10 @@
       <c r="AK45" t="s"/>
       <c r="AL45" t="s"/>
       <c r="AM45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:40">
@@ -5402,31 +5355,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02588840408238013</v>
+        <v>0.00682505974558878</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
       </c>
       <c r="D46" t="n">
-        <v>1.069432973861694</v>
+        <v>0.4715709686279297</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s">
         <v>44</v>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K46" t="n">
         <v>1e-06</v>
@@ -5436,31 +5389,31 @@
       </c>
       <c r="M46" t="s"/>
       <c r="N46" t="n">
-        <v>4.164763780587659</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>6.567675590877957e-07</v>
+        <v>2.666578799989424e-15</v>
       </c>
       <c r="P46" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S46" t="b">
         <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="U46" t="n">
-        <v>841</v>
+        <v>121</v>
       </c>
       <c r="V46" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W46" t="s">
         <v>48</v>
@@ -5469,7 +5422,7 @@
         <v>49</v>
       </c>
       <c r="Y46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z46" t="s"/>
       <c r="AA46" t="s"/>
@@ -5478,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="AD46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE46" t="b">
         <v>0</v>
@@ -5487,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.02588840408238013</v>
+        <v>0.00682505974558878</v>
       </c>
       <c r="AH46" t="s"/>
       <c r="AI46" t="s"/>
@@ -5495,10 +5448,10 @@
       <c r="AK46" t="s"/>
       <c r="AL46" t="s"/>
       <c r="AM46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:40">
@@ -5506,31 +5459,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04012116796146481</v>
+        <v>2.035783966780613e-05</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
       </c>
       <c r="D47" t="n">
-        <v>10.35208010673523</v>
+        <v>2.201889991760254</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s">
         <v>44</v>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K47" t="n">
         <v>1e-06</v>
@@ -5540,31 +5493,31 @@
       </c>
       <c r="M47" t="s"/>
       <c r="N47" t="n">
-        <v>5.789420261552197</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>5.630592029629173e-07</v>
+        <v>1.486825135716844e-12</v>
       </c>
       <c r="P47" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S47" t="b">
         <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="U47" t="n">
-        <v>3372</v>
+        <v>40401</v>
       </c>
       <c r="V47" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W47" t="s">
         <v>48</v>
@@ -5573,7 +5526,7 @@
         <v>49</v>
       </c>
       <c r="Y47" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z47" t="s"/>
       <c r="AA47" t="s"/>
@@ -5582,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="AD47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
@@ -5591,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.04012116796146481</v>
+        <v>2.035783966780613e-05</v>
       </c>
       <c r="AH47" t="s"/>
       <c r="AI47" t="s"/>
@@ -5599,10 +5552,10 @@
       <c r="AK47" t="s"/>
       <c r="AL47" t="s"/>
       <c r="AM47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:40">
@@ -5610,103 +5563,3203 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1920885851183839</v>
+        <v>1081.025087356567</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4817600250244141</v>
+        <v>81.75834608078003</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" t="n">
         <v>50</v>
       </c>
-      <c r="I48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" t="n">
-        <v>100</v>
-      </c>
       <c r="K48" t="n">
-        <v>1e-06</v>
+        <v>1e-05</v>
       </c>
       <c r="L48" t="s">
-        <v>45</v>
-      </c>
-      <c r="M48" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
       <c r="N48" t="n">
-        <v>2.595079353323967</v>
+        <v>1.01568424097989</v>
       </c>
       <c r="O48" t="n">
-        <v>8.109168566004872e-07</v>
+        <v>2.65755418019997e-06</v>
       </c>
       <c r="P48" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S48" t="b">
         <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="U48" t="n">
-        <v>508</v>
+        <v>6561</v>
       </c>
       <c r="V48" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W48" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="X48" t="s">
         <v>49</v>
       </c>
       <c r="Y48" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.003086419753086406</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.028806584362135e-06</v>
+      </c>
+      <c r="AC48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.03956451080126301</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>5952</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.006123456790122678</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>779.7479758262634</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="n">
+        <v>19.43801188468933</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" t="n">
         <v>50</v>
       </c>
-      <c r="Z48" t="s"/>
-      <c r="AA48" t="s"/>
-      <c r="AB48" t="s"/>
-      <c r="AC48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD48" t="s">
+      <c r="K49" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="L49" t="s">
+        <v>69</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.01473858495003</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.391168224121152e-06</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>74</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>10</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2601</v>
+      </c>
+      <c r="V49" t="s">
+        <v>75</v>
+      </c>
+      <c r="W49" t="s">
+        <v>94</v>
+      </c>
+      <c r="X49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.004901960784313708</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.633986928104569e-06</v>
+      </c>
+      <c r="AC49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.05491052997775769</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>3750</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.006127450980391613</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN49" t="s">
         <v>51</v>
       </c>
-      <c r="AE48" t="b">
+    </row>
+    <row r="50" spans="1:40">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>128.7340493202209</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5113248825073242</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" t="n">
+        <v>50</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="L50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.014369931491095</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.291821271818711e-06</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>74</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>10</v>
+      </c>
+      <c r="U50" t="n">
+        <v>49</v>
+      </c>
+      <c r="V50" t="s">
+        <v>75</v>
+      </c>
+      <c r="W50" t="s">
+        <v>94</v>
+      </c>
+      <c r="X50" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.0357142857142857</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.19047619047619e-05</v>
+      </c>
+      <c r="AC50" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG48" t="n">
+      <c r="AD50" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.1401180245808307</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>330</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.003928571428571438</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>282.9622840881348</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.022938013076782</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" t="n">
+        <v>50</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="L51" t="s">
+        <v>69</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.014445864551514</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.190695694837626e-06</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>74</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>10</v>
+      </c>
+      <c r="U51" t="n">
+        <v>961</v>
+      </c>
+      <c r="V51" t="s">
+        <v>75</v>
+      </c>
+      <c r="W51" t="s">
+        <v>94</v>
+      </c>
+      <c r="X51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.008064516129032251</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>2.68817204301075e-06</v>
+      </c>
+      <c r="AC51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.08670686162432897</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1845</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.004959677419354811</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>181.0557241439819</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9353039264678955</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" t="s">
+        <v>93</v>
+      </c>
+      <c r="J52" t="n">
+        <v>50</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="L52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.014385574259385</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.197492679724406e-06</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>74</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>10</v>
+      </c>
+      <c r="U52" t="n">
+        <v>225</v>
+      </c>
+      <c r="V52" t="s">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s">
+        <v>94</v>
+      </c>
+      <c r="X52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.01666666666666666</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>5.555555555555554e-06</v>
+      </c>
+      <c r="AC52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0.1140526462916363</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>856</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0.004755555555555531</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>327.3665237426758</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.537665843963623</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s"/>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s">
+        <v>46</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>10</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1331</v>
+      </c>
+      <c r="V53" t="s">
+        <v>47</v>
+      </c>
+      <c r="W53" t="s">
+        <v>58</v>
+      </c>
+      <c r="X53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA53" t="s"/>
+      <c r="AB53" t="s"/>
+      <c r="AC53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.9659812268724739</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>447</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.001505050505050495</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2582.202049255371</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="n">
+        <v>39.41480207443237</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s"/>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="s"/>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s">
+        <v>46</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="b">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>10</v>
+      </c>
+      <c r="U54" t="n">
+        <v>29791</v>
+      </c>
+      <c r="V54" t="s">
+        <v>47</v>
+      </c>
+      <c r="W54" t="s">
+        <v>58</v>
+      </c>
+      <c r="X54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA54" t="s"/>
+      <c r="AB54" t="s"/>
+      <c r="AC54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1.119384492885434</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1792</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.002140979689366774</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1263.484217643738</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9.285436153411865</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s"/>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="s"/>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s">
+        <v>46</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="b">
+        <v>1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>10</v>
+      </c>
+      <c r="U55" t="n">
+        <v>9261</v>
+      </c>
+      <c r="V55" t="s">
+        <v>47</v>
+      </c>
+      <c r="W55" t="s">
+        <v>58</v>
+      </c>
+      <c r="X55" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA55" t="s"/>
+      <c r="AB55" t="s"/>
+      <c r="AC55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.096586750677519</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1110</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0.001957671957671934</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.02225342572509981</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3127729892730713</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" t="n">
+        <v>500</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M56" t="s"/>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.838139293379311e-13</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>88</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="b">
+        <v>1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>17</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2560</v>
+      </c>
+      <c r="V56" t="s">
+        <v>98</v>
+      </c>
+      <c r="W56" t="s">
+        <v>48</v>
+      </c>
+      <c r="X56" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z56" t="s"/>
+      <c r="AA56" t="s"/>
+      <c r="AB56" t="s"/>
+      <c r="AC56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.02226683641491682</v>
+      </c>
+      <c r="AH56" t="s"/>
+      <c r="AI56" t="s"/>
+      <c r="AJ56" t="s"/>
+      <c r="AK56" t="s"/>
+      <c r="AL56" t="s"/>
+      <c r="AM56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0708612563683631</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.4594008922576904</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" t="n">
+        <v>500</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L57" t="s">
+        <v>45</v>
+      </c>
+      <c r="M57" t="s"/>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>9.502393957370366e-16</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>88</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="b">
+        <v>1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>17</v>
+      </c>
+      <c r="U57" t="n">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s">
+        <v>98</v>
+      </c>
+      <c r="W57" t="s">
+        <v>48</v>
+      </c>
+      <c r="X57" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z57" t="s"/>
+      <c r="AA57" t="s"/>
+      <c r="AB57" t="s"/>
+      <c r="AC57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.07366496204246861</v>
+      </c>
+      <c r="AH57" t="s"/>
+      <c r="AI57" t="s"/>
+      <c r="AJ57" t="s"/>
+      <c r="AK57" t="s"/>
+      <c r="AL57" t="s"/>
+      <c r="AM57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.02673644973497535</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.1770970821380615</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" t="n">
+        <v>500</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58" t="s"/>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.924624158598763e-14</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>88</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>17</v>
+      </c>
+      <c r="U58" t="n">
+        <v>640</v>
+      </c>
+      <c r="V58" t="s">
+        <v>98</v>
+      </c>
+      <c r="W58" t="s">
+        <v>48</v>
+      </c>
+      <c r="X58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z58" t="s"/>
+      <c r="AA58" t="s"/>
+      <c r="AB58" t="s"/>
+      <c r="AC58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.02680097674922516</v>
+      </c>
+      <c r="AH58" t="s"/>
+      <c r="AI58" t="s"/>
+      <c r="AJ58" t="s"/>
+      <c r="AK58" t="s"/>
+      <c r="AL58" t="s"/>
+      <c r="AM58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.03703589094000981</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.1407508850097656</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" t="n">
+        <v>500</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L59" t="s">
+        <v>45</v>
+      </c>
+      <c r="M59" t="s"/>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9.567211795669094e-15</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>88</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="b">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>17</v>
+      </c>
+      <c r="U59" t="n">
+        <v>160</v>
+      </c>
+      <c r="V59" t="s">
+        <v>98</v>
+      </c>
+      <c r="W59" t="s">
+        <v>48</v>
+      </c>
+      <c r="X59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z59" t="s"/>
+      <c r="AA59" t="s"/>
+      <c r="AB59" t="s"/>
+      <c r="AC59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.03739515969390723</v>
+      </c>
+      <c r="AH59" t="s"/>
+      <c r="AI59" t="s"/>
+      <c r="AJ59" t="s"/>
+      <c r="AK59" t="s"/>
+      <c r="AL59" t="s"/>
+      <c r="AM59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0206188039788423</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8862590789794922</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" t="n">
+        <v>500</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L60" t="s">
+        <v>45</v>
+      </c>
+      <c r="M60" t="s"/>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.87205750464589e-12</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>88</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="b">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>17</v>
+      </c>
+      <c r="U60" t="n">
+        <v>10240</v>
+      </c>
+      <c r="V60" t="s">
+        <v>98</v>
+      </c>
+      <c r="W60" t="s">
+        <v>48</v>
+      </c>
+      <c r="X60" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z60" t="s"/>
+      <c r="AA60" t="s"/>
+      <c r="AB60" t="s"/>
+      <c r="AC60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0.0206219094456291</v>
+      </c>
+      <c r="AH60" t="s"/>
+      <c r="AI60" t="s"/>
+      <c r="AJ60" t="s"/>
+      <c r="AK60" t="s"/>
+      <c r="AL60" t="s"/>
+      <c r="AM60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.01998932029872391</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.181678056716919</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" t="n">
+        <v>500</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L61" t="s">
+        <v>45</v>
+      </c>
+      <c r="M61" t="s"/>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.27846276579829e-11</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>88</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="b">
+        <v>1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>17</v>
+      </c>
+      <c r="U61" t="n">
+        <v>40960</v>
+      </c>
+      <c r="V61" t="s">
+        <v>98</v>
+      </c>
+      <c r="W61" t="s">
+        <v>48</v>
+      </c>
+      <c r="X61" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z61" t="s"/>
+      <c r="AA61" t="s"/>
+      <c r="AB61" t="s"/>
+      <c r="AC61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.01999007290658653</v>
+      </c>
+      <c r="AH61" t="s"/>
+      <c r="AI61" t="s"/>
+      <c r="AJ61" t="s"/>
+      <c r="AK61" t="s"/>
+      <c r="AL61" t="s"/>
+      <c r="AM61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.007902225053731282</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.280243873596191</v>
+      </c>
+      <c r="E62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" t="n">
+        <v>500</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L62" t="s">
+        <v>45</v>
+      </c>
+      <c r="M62" t="s"/>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>5.755690286662439e-13</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="b">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4</v>
+      </c>
+      <c r="U62" t="n">
+        <v>25872</v>
+      </c>
+      <c r="V62" t="s">
+        <v>57</v>
+      </c>
+      <c r="W62" t="s">
+        <v>48</v>
+      </c>
+      <c r="X62" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z62" t="s"/>
+      <c r="AA62" t="s"/>
+      <c r="AB62" t="s"/>
+      <c r="AC62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0.007903217495356218</v>
+      </c>
+      <c r="AH62" t="s"/>
+      <c r="AI62" t="s"/>
+      <c r="AJ62" t="s"/>
+      <c r="AK62" t="s"/>
+      <c r="AL62" t="s"/>
+      <c r="AM62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.04115997257442783</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.4608771800994873</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" t="n">
+        <v>500</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M63" t="s"/>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.472033559735142e-15</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>56</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="b">
+        <v>1</v>
+      </c>
+      <c r="T63" t="n">
+        <v>4</v>
+      </c>
+      <c r="U63" t="n">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s">
+        <v>57</v>
+      </c>
+      <c r="W63" t="s">
+        <v>48</v>
+      </c>
+      <c r="X63" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z63" t="s"/>
+      <c r="AA63" t="s"/>
+      <c r="AB63" t="s"/>
+      <c r="AC63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0.04972168575894906</v>
+      </c>
+      <c r="AH63" t="s"/>
+      <c r="AI63" t="s"/>
+      <c r="AJ63" t="s"/>
+      <c r="AK63" t="s"/>
+      <c r="AL63" t="s"/>
+      <c r="AM63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.02181982306404848</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.20278000831604</v>
+      </c>
+      <c r="E64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" t="n">
+        <v>500</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L64" t="s">
+        <v>45</v>
+      </c>
+      <c r="M64" t="s"/>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.825252567947374e-14</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>56</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="b">
+        <v>1</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>934</v>
+      </c>
+      <c r="V64" t="s">
+        <v>57</v>
+      </c>
+      <c r="W64" t="s">
+        <v>48</v>
+      </c>
+      <c r="X64" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z64" t="s"/>
+      <c r="AA64" t="s"/>
+      <c r="AB64" t="s"/>
+      <c r="AC64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0.02190713533101975</v>
+      </c>
+      <c r="AH64" t="s"/>
+      <c r="AI64" t="s"/>
+      <c r="AJ64" t="s"/>
+      <c r="AK64" t="s"/>
+      <c r="AL64" t="s"/>
+      <c r="AM64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.04317126214846034</v>
+      </c>
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.1587960720062256</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s">
+        <v>44</v>
+      </c>
+      <c r="J65" t="n">
+        <v>500</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L65" t="s">
+        <v>45</v>
+      </c>
+      <c r="M65" t="s"/>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>5.844609183824137e-15</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>56</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="b">
+        <v>1</v>
+      </c>
+      <c r="T65" t="n">
+        <v>4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>224</v>
+      </c>
+      <c r="V65" t="s">
+        <v>57</v>
+      </c>
+      <c r="W65" t="s">
+        <v>48</v>
+      </c>
+      <c r="X65" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z65" t="s"/>
+      <c r="AA65" t="s"/>
+      <c r="AB65" t="s"/>
+      <c r="AC65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0.04358040486275449</v>
+      </c>
+      <c r="AH65" t="s"/>
+      <c r="AI65" t="s"/>
+      <c r="AJ65" t="s"/>
+      <c r="AK65" t="s"/>
+      <c r="AL65" t="s"/>
+      <c r="AM65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01150528267417145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.4467880725860596</v>
+      </c>
+      <c r="E66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" t="n">
+        <v>500</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L66" t="s">
+        <v>45</v>
+      </c>
+      <c r="M66" t="s"/>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.612434669993923e-13</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>56</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4</v>
+      </c>
+      <c r="U66" t="n">
+        <v>6422</v>
+      </c>
+      <c r="V66" t="s">
+        <v>57</v>
+      </c>
+      <c r="W66" t="s">
+        <v>48</v>
+      </c>
+      <c r="X66" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z66" t="s"/>
+      <c r="AA66" t="s"/>
+      <c r="AB66" t="s"/>
+      <c r="AC66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0.01151013347114442</v>
+      </c>
+      <c r="AH66" t="s"/>
+      <c r="AI66" t="s"/>
+      <c r="AJ66" t="s"/>
+      <c r="AK66" t="s"/>
+      <c r="AL66" t="s"/>
+      <c r="AM66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.05256584074127857</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="n">
+        <v>120.9807889461517</v>
+      </c>
+      <c r="E67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" t="n">
+        <v>100</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L67" t="s">
+        <v>69</v>
+      </c>
+      <c r="M67" t="s"/>
+      <c r="N67" t="n">
+        <v>8.285588075542091</v>
+      </c>
+      <c r="O67" t="n">
+        <v>4.724572674733031e-07</v>
+      </c>
+      <c r="P67" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>80</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="b">
+        <v>1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>30</v>
+      </c>
+      <c r="U67" t="n">
+        <v>12465</v>
+      </c>
+      <c r="V67" t="s">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s">
+        <v>71</v>
+      </c>
+      <c r="X67" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z67" t="s"/>
+      <c r="AA67" t="s"/>
+      <c r="AB67" t="s"/>
+      <c r="AC67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0.05256584074127857</v>
+      </c>
+      <c r="AH67" t="s"/>
+      <c r="AI67" t="s"/>
+      <c r="AJ67" t="s"/>
+      <c r="AK67" t="s"/>
+      <c r="AL67" t="s"/>
+      <c r="AM67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1015435968455699</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.596435070037842</v>
+      </c>
+      <c r="E68" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s">
+        <v>44</v>
+      </c>
+      <c r="J68" t="n">
+        <v>100</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M68" t="s"/>
+      <c r="N68" t="n">
+        <v>4.528729165874529</v>
+      </c>
+      <c r="O68" t="n">
+        <v>8.118216070445409e-07</v>
+      </c>
+      <c r="P68" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>80</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="b">
+        <v>1</v>
+      </c>
+      <c r="T68" t="n">
+        <v>30</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1543</v>
+      </c>
+      <c r="V68" t="s">
+        <v>81</v>
+      </c>
+      <c r="W68" t="s">
+        <v>71</v>
+      </c>
+      <c r="X68" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z68" t="s"/>
+      <c r="AA68" t="s"/>
+      <c r="AB68" t="s"/>
+      <c r="AC68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0.101543596845585</v>
+      </c>
+      <c r="AH68" t="s"/>
+      <c r="AI68" t="s"/>
+      <c r="AJ68" t="s"/>
+      <c r="AK68" t="s"/>
+      <c r="AL68" t="s"/>
+      <c r="AM68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.02035502311975279</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" t="n">
+        <v>27.87833905220032</v>
+      </c>
+      <c r="E69" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" t="n">
+        <v>100</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L69" t="s">
+        <v>69</v>
+      </c>
+      <c r="M69" t="s"/>
+      <c r="N69" t="n">
+        <v>6.399606319146645</v>
+      </c>
+      <c r="O69" t="n">
+        <v>4.704931150357391e-07</v>
+      </c>
+      <c r="P69" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>80</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="b">
+        <v>1</v>
+      </c>
+      <c r="T69" t="n">
+        <v>27</v>
+      </c>
+      <c r="U69" t="n">
+        <v>5956</v>
+      </c>
+      <c r="V69" t="s">
+        <v>81</v>
+      </c>
+      <c r="W69" t="s">
+        <v>71</v>
+      </c>
+      <c r="X69" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z69" t="s"/>
+      <c r="AA69" t="s"/>
+      <c r="AB69" t="s"/>
+      <c r="AC69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0.02035502311975582</v>
+      </c>
+      <c r="AH69" t="s"/>
+      <c r="AI69" t="s"/>
+      <c r="AJ69" t="s"/>
+      <c r="AK69" t="s"/>
+      <c r="AL69" t="s"/>
+      <c r="AM69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1598242313645823</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.4496541023254395</v>
+      </c>
+      <c r="E70" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" t="n">
+        <v>100</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L70" t="s">
+        <v>69</v>
+      </c>
+      <c r="M70" t="s"/>
+      <c r="N70" t="n">
+        <v>1.156365989418418</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3.866477153378435e-08</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>80</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="b">
+        <v>1</v>
+      </c>
+      <c r="T70" t="n">
+        <v>15</v>
+      </c>
+      <c r="U70" t="n">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s">
+        <v>71</v>
+      </c>
+      <c r="X70" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z70" t="s"/>
+      <c r="AA70" t="s"/>
+      <c r="AB70" t="s"/>
+      <c r="AC70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>0.1598242313645823</v>
+      </c>
+      <c r="AH70" t="s"/>
+      <c r="AI70" t="s"/>
+      <c r="AJ70" t="s"/>
+      <c r="AK70" t="s"/>
+      <c r="AL70" t="s"/>
+      <c r="AM70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.02588840408238013</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.027492046356201</v>
+      </c>
+      <c r="E71" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" t="s">
+        <v>102</v>
+      </c>
+      <c r="H71" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" t="s">
+        <v>44</v>
+      </c>
+      <c r="J71" t="n">
+        <v>100</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L71" t="s">
+        <v>69</v>
+      </c>
+      <c r="M71" t="s"/>
+      <c r="N71" t="n">
+        <v>4.164763780587659</v>
+      </c>
+      <c r="O71" t="n">
+        <v>6.567675590877957e-07</v>
+      </c>
+      <c r="P71" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>80</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="b">
+        <v>1</v>
+      </c>
+      <c r="T71" t="n">
+        <v>17</v>
+      </c>
+      <c r="U71" t="n">
+        <v>841</v>
+      </c>
+      <c r="V71" t="s">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s">
+        <v>71</v>
+      </c>
+      <c r="X71" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z71" t="s"/>
+      <c r="AA71" t="s"/>
+      <c r="AB71" t="s"/>
+      <c r="AC71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0.02588840408238013</v>
+      </c>
+      <c r="AH71" t="s"/>
+      <c r="AI71" t="s"/>
+      <c r="AJ71" t="s"/>
+      <c r="AK71" t="s"/>
+      <c r="AL71" t="s"/>
+      <c r="AM71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.04012116796146481</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10.08884191513062</v>
+      </c>
+      <c r="E72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" t="s">
+        <v>102</v>
+      </c>
+      <c r="H72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s">
+        <v>44</v>
+      </c>
+      <c r="J72" t="n">
+        <v>100</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L72" t="s">
+        <v>69</v>
+      </c>
+      <c r="M72" t="s"/>
+      <c r="N72" t="n">
+        <v>5.789420261552197</v>
+      </c>
+      <c r="O72" t="n">
+        <v>5.630592029629173e-07</v>
+      </c>
+      <c r="P72" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>80</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="b">
+        <v>1</v>
+      </c>
+      <c r="T72" t="n">
+        <v>26</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3372</v>
+      </c>
+      <c r="V72" t="s">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s">
+        <v>71</v>
+      </c>
+      <c r="X72" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z72" t="s"/>
+      <c r="AA72" t="s"/>
+      <c r="AB72" t="s"/>
+      <c r="AC72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0.04012116796146481</v>
+      </c>
+      <c r="AH72" t="s"/>
+      <c r="AI72" t="s"/>
+      <c r="AJ72" t="s"/>
+      <c r="AK72" t="s"/>
+      <c r="AL72" t="s"/>
+      <c r="AM72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1920885851183839</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4962449073791504</v>
+      </c>
+      <c r="E73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" t="s">
+        <v>101</v>
+      </c>
+      <c r="G73" t="s">
+        <v>102</v>
+      </c>
+      <c r="H73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" t="n">
+        <v>100</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L73" t="s">
+        <v>69</v>
+      </c>
+      <c r="M73" t="s"/>
+      <c r="N73" t="n">
+        <v>2.595079353323967</v>
+      </c>
+      <c r="O73" t="n">
+        <v>8.109168566004872e-07</v>
+      </c>
+      <c r="P73" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>80</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="b">
+        <v>1</v>
+      </c>
+      <c r="T73" t="n">
+        <v>45</v>
+      </c>
+      <c r="U73" t="n">
+        <v>508</v>
+      </c>
+      <c r="V73" t="s">
+        <v>81</v>
+      </c>
+      <c r="W73" t="s">
+        <v>71</v>
+      </c>
+      <c r="X73" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z73" t="s"/>
+      <c r="AA73" t="s"/>
+      <c r="AB73" t="s"/>
+      <c r="AC73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG73" t="n">
         <v>0.1920907418076424</v>
       </c>
-      <c r="AH48" t="s"/>
-      <c r="AI48" t="s"/>
-      <c r="AJ48" t="s"/>
-      <c r="AK48" t="s"/>
-      <c r="AL48" t="s"/>
-      <c r="AM48" t="n">
+      <c r="AH73" t="s"/>
+      <c r="AI73" t="s"/>
+      <c r="AJ73" t="s"/>
+      <c r="AK73" t="s"/>
+      <c r="AL73" t="s"/>
+      <c r="AM73" t="n">
         <v>3</v>
       </c>
-      <c r="AN48" t="s">
-        <v>52</v>
+      <c r="AN73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6.443158133047573</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.3653769493103027</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" t="n">
+        <v>500</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L74" t="s">
+        <v>45</v>
+      </c>
+      <c r="M74" t="s"/>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>4.477522691747969e-14</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>103</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="b">
+        <v>1</v>
+      </c>
+      <c r="T74" t="n">
+        <v>25</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2304</v>
+      </c>
+      <c r="V74" t="s">
+        <v>98</v>
+      </c>
+      <c r="W74" t="s">
+        <v>48</v>
+      </c>
+      <c r="X74" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z74" t="s"/>
+      <c r="AA74" t="s"/>
+      <c r="AB74" t="s"/>
+      <c r="AC74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>6.524931809669063</v>
+      </c>
+      <c r="AH74" t="s"/>
+      <c r="AI74" t="s"/>
+      <c r="AJ74" t="s"/>
+      <c r="AK74" t="s"/>
+      <c r="AL74" t="s"/>
+      <c r="AM74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.016479635360598</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7.627875089645386</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s">
+        <v>44</v>
+      </c>
+      <c r="J75" t="n">
+        <v>500</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L75" t="s">
+        <v>45</v>
+      </c>
+      <c r="M75" t="s"/>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>5.203867418554863e-13</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>103</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>25</v>
+      </c>
+      <c r="U75" t="n">
+        <v>18432</v>
+      </c>
+      <c r="V75" t="s">
+        <v>98</v>
+      </c>
+      <c r="W75" t="s">
+        <v>48</v>
+      </c>
+      <c r="X75" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z75" t="s"/>
+      <c r="AA75" t="s"/>
+      <c r="AB75" t="s"/>
+      <c r="AC75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>7.040279164662853</v>
+      </c>
+      <c r="AH75" t="s"/>
+      <c r="AI75" t="s"/>
+      <c r="AJ75" t="s"/>
+      <c r="AK75" t="s"/>
+      <c r="AL75" t="s"/>
+      <c r="AM75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5.334935425939154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.1456029415130615</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" t="s">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" t="n">
+        <v>500</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L76" t="s">
+        <v>45</v>
+      </c>
+      <c r="M76" t="s"/>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.123444587296556e-14</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>103</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="b">
+        <v>1</v>
+      </c>
+      <c r="T76" t="n">
+        <v>25</v>
+      </c>
+      <c r="U76" t="n">
+        <v>288</v>
+      </c>
+      <c r="V76" t="s">
+        <v>98</v>
+      </c>
+      <c r="W76" t="s">
+        <v>48</v>
+      </c>
+      <c r="X76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z76" t="s"/>
+      <c r="AA76" t="s"/>
+      <c r="AB76" t="s"/>
+      <c r="AC76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>5.567610783614509</v>
+      </c>
+      <c r="AH76" t="s"/>
+      <c r="AI76" t="s"/>
+      <c r="AJ76" t="s"/>
+      <c r="AK76" t="s"/>
+      <c r="AL76" t="s"/>
+      <c r="AM76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.66719968896035</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4253840446472168</v>
+      </c>
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77" t="n">
+        <v>500</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L77" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" t="s"/>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.192994987786034e-15</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>103</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="b">
+        <v>1</v>
+      </c>
+      <c r="T77" t="n">
+        <v>16</v>
+      </c>
+      <c r="U77" t="n">
+        <v>36</v>
+      </c>
+      <c r="V77" t="s">
+        <v>98</v>
+      </c>
+      <c r="W77" t="s">
+        <v>48</v>
+      </c>
+      <c r="X77" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z77" t="s"/>
+      <c r="AA77" t="s"/>
+      <c r="AB77" t="s"/>
+      <c r="AC77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>4.069145552990007</v>
+      </c>
+      <c r="AH77" t="s"/>
+      <c r="AI77" t="s"/>
+      <c r="AJ77" t="s"/>
+      <c r="AK77" t="s"/>
+      <c r="AL77" t="s"/>
+      <c r="AM77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
